--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.7042596075429847</v>
+        <v>0.7277521190400923</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.719684280702942</v>
+        <v>0.7195530138050085</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.6855824995996065</v>
+        <v>0.725594723202131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.7059666671819314</v>
+        <v>0.7441800230032644</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.7458570662269725</v>
+        <v>0.7288809891666385</v>
       </c>
     </row>
   </sheetData>
